--- a/biology/Médecine/Classification_internationale_des_maladies_oncologiques/Classification_internationale_des_maladies_oncologiques.xlsx
+++ b/biology/Médecine/Classification_internationale_des_maladies_oncologiques/Classification_internationale_des_maladies_oncologiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Classification internationale des maladies oncologiques (en anglais International Classification of Diseases for Oncology, ICD-O) est une extension spécifique à un domaine de la Classification internationale des maladies pour les maladies tumorales. Cette classification est largement utilisée pour les registres de cancer.
-La troisième édition est parue en 2008[1].
+La troisième édition est parue en 2008.
 </t>
         </is>
       </c>
@@ -512,14 +524,90 @@
           <t>Axes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification possède deux axes morphologique et topographique.
-Axe morphologique
-L'axe morphologique concerne la morphologie de la tumeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Axes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Axe morphologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'axe morphologique concerne la morphologie de la tumeur.
 Cet axe a une importance additionnelle, car la « Systematized nomenclature of medicine » a adopté la classification morphologique de ICD-O.
-Exemples de codes
-(8000-8009) Non spécifié ailleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Axes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Axe morphologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Exemples de codes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(8000-8009) Non spécifié ailleurs
 (8000-8004) Néoplasie, non spécifié ailleurs
 (8000/0) Néoplasie bénigne
 (8000/1) Néoplasie, caractère bénin ou malin incertain
@@ -529,9 +617,43 @@
 (8010-8790) néoplasies épithéliales
 (8800-9370) Autres néoplasies non-hématologiques --tissu conjonctif
 (9380-9589) Autres néoplasies non-hématologiques -- système nerveux
-(9590/0-9999/3) Néoplasies hématologiques (leucémies, lymphomes et troubles apparentés)
-Axe topographique
-L'axe topographique est celui des codes topographiques du site tumoral. Il est standardisé par la section C du CIM-10
+(9590/0-9999/3) Néoplasies hématologiques (leucémies, lymphomes et troubles apparentés)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_internationale_des_maladies_oncologiques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Axes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Axe topographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'axe topographique est celui des codes topographiques du site tumoral. Il est standardisé par la section C du CIM-10
 Il n'y a pas eu de changements d'axes topographiques entre ICD-O-2 et ICD-O-3.
 Voir CIM-10 Chapitre 02 : Tumeurs pour des exemples.
 </t>
